--- a/Assets/Designs/General/HUDInteraction.xlsx
+++ b/Assets/Designs/General/HUDInteraction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -55,25 +55,10 @@
     <t>false</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Only happended once</t>
-  </si>
-  <si>
-    <t>Enums.INTERACTION_TYPE.End</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Task1</t>
-  </si>
-  <si>
-    <t>Task2</t>
-  </si>
-  <si>
     <t>Sample Game</t>
+  </si>
+  <si>
+    <t>First Day</t>
   </si>
 </sst>
 </file>
@@ -695,7 +680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,9 +688,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1244,13 +1226,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="38.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="47.3333333333333" customWidth="1"/>
@@ -1311,20 +1293,20 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
+      <c r="C4">
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1332,66 +1314,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Assets/Designs/General/HUDInteraction.xlsx
+++ b/Assets/Designs/General/HUDInteraction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>First Day</t>
+  </si>
+  <si>
+    <t>Reminder</t>
+  </si>
+  <si>
+    <t>Enums.INTERACTION_TYPE.ShowReminder</t>
   </si>
 </sst>
 </file>
@@ -680,7 +686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,6 +694,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1226,13 +1235,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="38.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="47.3333333333333" customWidth="1"/>
@@ -1326,6 +1335,23 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Designs/General/HUDInteraction.xlsx
+++ b/Assets/Designs/General/HUDInteraction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>Enums.INTERACTION_TYPE.ShowReminder</t>
+  </si>
+  <si>
+    <t>Enter Team Room</t>
+  </si>
+  <si>
+    <t>Enums.INTERACTION_TYPE.Teleport</t>
+  </si>
+  <si>
+    <t>Exit Team Room</t>
   </si>
 </sst>
 </file>
@@ -1235,13 +1244,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="38.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="47.3333333333333" customWidth="1"/>
@@ -1339,16 +1348,50 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Assets/Designs/General/HUDInteraction.xlsx
+++ b/Assets/Designs/General/HUDInteraction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="27948" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="HUDInteraction" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -22,15 +22,15 @@
     <t>Content</t>
   </si>
   <si>
-    <t>Target</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
     <t>bOneTime</t>
   </si>
   <si>
+    <t>bNoneClicking</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -40,40 +40,34 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>Enums.INTERACTION_TYPE</t>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>Enums.INTERACTION_TYPE.Chat</t>
+    <t>Enter Team Room</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>Sample Game</t>
-  </si>
-  <si>
-    <t>First Day</t>
-  </si>
-  <si>
-    <t>Reminder</t>
-  </si>
-  <si>
-    <t>Enums.INTERACTION_TYPE.ShowReminder</t>
-  </si>
-  <si>
-    <t>Enter Team Room</t>
-  </si>
-  <si>
-    <t>Enums.INTERACTION_TYPE.Teleport</t>
-  </si>
-  <si>
     <t>Exit Team Room</t>
+  </si>
+  <si>
+    <t>ShooterLevel 1</t>
+  </si>
+  <si>
+    <t>ShooterLevel 2</t>
+  </si>
+  <si>
+    <t>ShooterLevel 3</t>
+  </si>
+  <si>
+    <t>ShooterLevel 4</t>
+  </si>
+  <si>
+    <t>ShooterLevel 5</t>
+  </si>
+  <si>
+    <t>Welcome to the Debug version!</t>
   </si>
 </sst>
 </file>
@@ -702,10 +696,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1244,19 +1238,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="38.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="47.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="23.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="45.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="14.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="29.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="15.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1290,75 +1284,75 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1366,16 +1360,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1383,16 +1377,50 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/HUDInteraction.xlsx
+++ b/Assets/Designs/General/HUDInteraction.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12420"/>
+    <workbookView windowWidth="29868" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="HUDInteraction" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -67,13 +80,40 @@
     <t>ShooterLevel 5</t>
   </si>
   <si>
-    <t>Welcome to the Debug version!</t>
+    <t>Greetings!</t>
+  </si>
+  <si>
+    <t>I'm ready!</t>
+  </si>
+  <si>
+    <t>Dummy - TriggerChatAutomatically</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Try some games!</t>
+  </si>
+  <si>
+    <t>I have tried a game...</t>
+  </si>
+  <si>
+    <t>Good Morning!</t>
+  </si>
+  <si>
+    <t>Anything else?</t>
+  </si>
+  <si>
+    <t>Welcome Back?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1238,10 +1278,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F1" sqref="F$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1295,7 +1335,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
@@ -1312,7 +1352,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -1325,10 +1365,10 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1342,10 +1382,10 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1359,10 +1399,10 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1376,10 +1416,10 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1393,10 +1433,10 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1410,7 +1450,7 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C10">
@@ -1420,6 +1460,193 @@
         <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>28</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>31</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>32</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Assets/Designs/General/HUDInteraction.xlsx
+++ b/Assets/Designs/General/HUDInteraction.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -56,58 +56,37 @@
     <t>bool</t>
   </si>
   <si>
-    <t>Enter Team Room</t>
+    <t>Hi...?</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>Exit Team Room</t>
-  </si>
-  <si>
-    <t>ShooterLevel 1</t>
-  </si>
-  <si>
-    <t>ShooterLevel 2</t>
-  </si>
-  <si>
-    <t>ShooterLevel 3</t>
-  </si>
-  <si>
-    <t>ShooterLevel 4</t>
-  </si>
-  <si>
-    <t>ShooterLevel 5</t>
-  </si>
-  <si>
-    <t>Greetings!</t>
-  </si>
-  <si>
-    <t>I'm ready!</t>
-  </si>
-  <si>
-    <t>Dummy - TriggerChatAutomatically</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>Hi</t>
-  </si>
-  <si>
-    <t>Try some games!</t>
-  </si>
-  <si>
-    <t>I have tried a game...</t>
-  </si>
-  <si>
-    <t>Good Morning!</t>
-  </si>
-  <si>
-    <t>Anything else?</t>
-  </si>
-  <si>
-    <t>Welcome Back?</t>
+    <t>Guide</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Check Connection Stability</t>
+  </si>
+  <si>
+    <t>Walk outside</t>
+  </si>
+  <si>
+    <t>Talk</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Looks Good!</t>
+  </si>
+  <si>
+    <t>Sleep!</t>
   </si>
 </sst>
 </file>
@@ -273,7 +252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +262,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,7 +608,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,16 +632,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -647,25 +650,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,21 +719,57 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1278,10 +1305,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:G$1048576"/>
+      <selection activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1327,326 +1354,173 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:5">
+      <c r="A3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
-        <v>107</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
+      <c r="C3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
+    <row r="4" s="2" customFormat="1" spans="1:5">
+      <c r="A4" s="2">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="2">
-        <v>103</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:5">
+      <c r="A5" s="2">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1003</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:5">
+      <c r="A6" s="2">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1005</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:5">
+      <c r="A7" s="2">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1006</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:5">
+      <c r="A8" s="3">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1007</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" s="4" customFormat="1" spans="1:5">
+      <c r="A9" s="10">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="C9" s="10">
+        <v>1009</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
+    <row r="10" s="4" customFormat="1" spans="1:5">
+      <c r="A10" s="10">
+        <v>10007</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1010</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
+    <row r="11" s="3" customFormat="1" spans="1:5">
+      <c r="A11" s="3">
+        <v>10008</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1013</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="12" s="2" customFormat="1" spans="1:5">
+      <c r="A12" s="2">
+        <v>10009</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>17</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>22</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18">
-        <v>26</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19">
-        <v>28</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20">
-        <v>31</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21">
-        <v>32</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="C12" s="2">
+        <v>1015</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Assets/Designs/General/HUDInteraction.xlsx
+++ b/Assets/Designs/General/HUDInteraction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="30720" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="HUDInteraction" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Sleep!</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Weird Guy</t>
   </si>
 </sst>
 </file>
@@ -252,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,12 +280,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,7 +608,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,16 +632,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -650,89 +650,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,22 +754,19 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1305,10 +1302,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1375,7 +1372,7 @@
       <c r="A4" s="2">
         <v>10001</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
@@ -1392,7 +1389,7 @@
       <c r="A5" s="2">
         <v>10002</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2">
@@ -1409,7 +1406,7 @@
       <c r="A6" s="2">
         <v>10003</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2">
@@ -1426,7 +1423,7 @@
       <c r="A7" s="2">
         <v>10004</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2">
@@ -1443,50 +1440,50 @@
       <c r="A8" s="3">
         <v>10005</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="3">
         <v>1007</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" spans="1:5">
-      <c r="A9" s="10">
+      <c r="A9" s="4">
         <v>10006</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="4">
         <v>1009</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" spans="1:5">
-      <c r="A10" s="10">
+      <c r="A10" s="4">
         <v>10007</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="4">
         <v>1010</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1494,16 +1491,16 @@
       <c r="A11" s="3">
         <v>10008</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="3">
         <v>1013</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1511,7 +1508,7 @@
       <c r="A12" s="2">
         <v>10009</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2">
@@ -1521,6 +1518,40 @@
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:5">
+      <c r="A13" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1016</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:5">
+      <c r="A14" s="3">
+        <v>10011</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1017</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Assets/Designs/General/HUDInteraction.xlsx
+++ b/Assets/Designs/General/HUDInteraction.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -86,13 +86,31 @@
     <t>Looks Good!</t>
   </si>
   <si>
-    <t>Sleep!</t>
+    <t>Sleep</t>
   </si>
   <si>
     <t>???</t>
   </si>
   <si>
     <t>Weird Guy</t>
+  </si>
+  <si>
+    <t>Enter Game</t>
+  </si>
+  <si>
+    <t>Go to the Audience Area</t>
+  </si>
+  <si>
+    <t>Good Morning</t>
+  </si>
+  <si>
+    <t>Good to hear from you</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Take Food</t>
   </si>
 </sst>
 </file>
@@ -279,13 +297,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.4"/>
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,13 +778,13 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1302,10 +1320,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1436,71 +1454,71 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:5">
-      <c r="A8" s="3">
+    <row r="8" s="2" customFormat="1" spans="1:5">
+      <c r="A8" s="2">
         <v>10005</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>1007</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" s="4" customFormat="1" spans="1:5">
-      <c r="A9" s="4">
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:5">
+      <c r="A9" s="2">
         <v>10006</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>1009</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="1" spans="1:5">
-      <c r="A10" s="4">
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:5">
+      <c r="A10" s="2">
         <v>10007</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>1010</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:5">
-      <c r="A11" s="3">
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:5">
+      <c r="A11" s="2">
         <v>10008</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>1013</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1512,7 +1530,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="2">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
@@ -1521,37 +1539,326 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:5">
-      <c r="A13" s="3">
+    <row r="13" s="2" customFormat="1" spans="1:5">
+      <c r="A13" s="2">
         <v>10010</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>1016</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:5">
-      <c r="A14" s="3">
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:5">
+      <c r="A14" s="2">
         <v>10011</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>1017</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:5">
+      <c r="A15" s="2">
+        <v>10012</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1019</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:5">
+      <c r="A16" s="2">
+        <v>10013</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1022</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:5">
+      <c r="A17" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:5">
+      <c r="A18" s="3">
+        <v>20001</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2001</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:5">
+      <c r="A19" s="3">
+        <v>20002</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:5">
+      <c r="A20" s="3">
+        <v>20008</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2004</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:5">
+      <c r="A21" s="3">
+        <v>20009</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2008</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:5">
+      <c r="A22" s="3">
+        <v>20010</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2009</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:5">
+      <c r="A23" s="3">
+        <v>20011</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:5">
+      <c r="A24" s="3">
+        <v>20012</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="1:5">
+      <c r="A25" s="3">
+        <v>20013</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" s="4" customFormat="1" spans="1:5">
+      <c r="A26" s="4">
+        <v>21000</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2005</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" s="4" customFormat="1" spans="1:5">
+      <c r="A27" s="4">
+        <v>31000</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" s="4" customFormat="1" spans="1:5">
+      <c r="A28" s="4">
+        <v>41000</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" s="4" customFormat="1" spans="1:5">
+      <c r="A29" s="4">
+        <v>51000</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" s="4" customFormat="1" spans="1:5">
+      <c r="A30" s="4">
+        <v>61000</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" s="4" customFormat="1" spans="1:5">
+      <c r="A31" s="4">
+        <v>71000</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Assets/Designs/General/HUDInteraction.xlsx
+++ b/Assets/Designs/General/HUDInteraction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13500"/>
+    <workbookView windowWidth="19200" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="HUDInteraction" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>...</t>
+  </si>
+  <si>
+    <t>Pet</t>
+  </si>
+  <si>
+    <t>GGBond</t>
+  </si>
+  <si>
+    <t>Samantha</t>
   </si>
   <si>
     <t>Take Food</t>
@@ -276,7 +285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +307,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +641,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,16 +665,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -668,89 +683,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,6 +779,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -778,13 +796,13 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1320,19 +1338,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="38.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="47.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="23.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="29.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="15.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="38.8849557522124" customWidth="1"/>
+    <col min="2" max="2" width="47.3362831858407" customWidth="1"/>
+    <col min="3" max="3" width="23.6637168141593" customWidth="1"/>
+    <col min="4" max="4" width="29.6637168141593" customWidth="1"/>
+    <col min="5" max="5" width="15.7787610619469" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1373,16 +1391,16 @@
       <c r="A3" s="2">
         <v>10000</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>1000</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1390,16 +1408,16 @@
       <c r="A4" s="2">
         <v>10001</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>1002</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1407,16 +1425,16 @@
       <c r="A5" s="2">
         <v>10002</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2">
         <v>1003</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1424,16 +1442,16 @@
       <c r="A6" s="2">
         <v>10003</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>1005</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1441,16 +1459,16 @@
       <c r="A7" s="2">
         <v>10004</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>1006</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1458,16 +1476,16 @@
       <c r="A8" s="2">
         <v>10005</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>1007</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1475,16 +1493,16 @@
       <c r="A9" s="2">
         <v>10006</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2">
         <v>1009</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1492,16 +1510,16 @@
       <c r="A10" s="2">
         <v>10007</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2">
         <v>1010</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1509,16 +1527,16 @@
       <c r="A11" s="2">
         <v>10008</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2">
         <v>1013</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1526,16 +1544,16 @@
       <c r="A12" s="2">
         <v>10009</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2">
         <v>1021</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1543,16 +1561,16 @@
       <c r="A13" s="2">
         <v>10010</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>1016</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1560,16 +1578,16 @@
       <c r="A14" s="2">
         <v>10011</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="2">
         <v>1017</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1577,16 +1595,16 @@
       <c r="A15" s="2">
         <v>10012</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="2">
         <v>1019</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1594,16 +1612,16 @@
       <c r="A16" s="2">
         <v>10013</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="2">
         <v>1022</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1611,16 +1629,16 @@
       <c r="A17" s="3">
         <v>20000</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="3">
         <v>2000</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1628,16 +1646,16 @@
       <c r="A18" s="3">
         <v>20001</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="3">
         <v>2001</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1645,16 +1663,16 @@
       <c r="A19" s="3">
         <v>20002</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="3">
         <v>2003</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1662,16 +1680,16 @@
       <c r="A20" s="3">
         <v>20008</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="3">
         <v>2004</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1679,16 +1697,16 @@
       <c r="A21" s="3">
         <v>20009</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="3">
         <v>2008</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1696,16 +1714,16 @@
       <c r="A22" s="3">
         <v>20010</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="3">
         <v>2009</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="D22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1713,16 +1731,16 @@
       <c r="A23" s="3">
         <v>20011</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="3">
         <v>2012</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="D23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1730,16 +1748,16 @@
       <c r="A24" s="3">
         <v>20012</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="3">
         <v>2015</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1747,118 +1765,254 @@
       <c r="A25" s="3">
         <v>20013</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="3">
         <v>2017</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" s="4" customFormat="1" spans="1:5">
-      <c r="A26" s="4">
+      <c r="D25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" s="3" customFormat="1" ht="13" customHeight="1" spans="1:5">
+      <c r="A26" s="3">
+        <v>20014</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" s="3" customFormat="1" ht="13" customHeight="1" spans="1:5">
+      <c r="A27" s="3">
+        <v>20015</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="1" ht="13" customHeight="1" spans="1:5">
+      <c r="A28" s="3">
+        <v>20016</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="1" ht="13" customHeight="1" spans="1:5">
+      <c r="A29" s="3">
+        <v>20017</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="1" ht="13" customHeight="1" spans="1:5">
+      <c r="A30" s="3">
+        <v>20018</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="1:5">
+      <c r="A31" s="3">
+        <v>20019</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" s="4" customFormat="1" spans="1:5">
+      <c r="A32" s="4">
+        <v>30000</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3003</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" s="4" customFormat="1" spans="1:5">
+      <c r="A33" s="4">
+        <v>30001</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3004</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" s="5" customFormat="1" spans="1:5">
+      <c r="A34" s="5">
         <v>21000</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="5">
         <v>2005</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D34" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" s="4" customFormat="1" spans="1:5">
-      <c r="A27" s="4">
+      <c r="E34" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" s="5" customFormat="1" spans="1:5">
+      <c r="A35" s="5">
         <v>31000</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="B35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3001</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" s="5" customFormat="1" spans="1:5">
+      <c r="A36" s="5">
+        <v>41000</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="5">
         <v>-1</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D36" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" s="4" customFormat="1" spans="1:5">
-      <c r="A28" s="4">
-        <v>41000</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="E36" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" s="5" customFormat="1" spans="1:5">
+      <c r="A37" s="5">
+        <v>51000</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="5">
         <v>-1</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D37" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" s="4" customFormat="1" spans="1:5">
-      <c r="A29" s="4">
-        <v>51000</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="E37" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" s="5" customFormat="1" spans="1:5">
+      <c r="A38" s="5">
+        <v>61000</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="5">
         <v>-1</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D38" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" s="4" customFormat="1" spans="1:5">
-      <c r="A30" s="4">
-        <v>61000</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="E38" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" s="5" customFormat="1" spans="1:5">
+      <c r="A39" s="5">
+        <v>71000</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="5">
         <v>-1</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D39" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" s="4" customFormat="1" spans="1:5">
-      <c r="A31" s="4">
-        <v>71000</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="11" t="s">
+      <c r="E39" s="12" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Assets/Designs/General/HUDInteraction.xlsx
+++ b/Assets/Designs/General/HUDInteraction.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Samantha</t>
+  </si>
+  <si>
+    <t>Dove</t>
   </si>
   <si>
     <t>Take Food</t>
@@ -1338,10 +1341,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1914,49 +1917,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" s="5" customFormat="1" spans="1:5">
-      <c r="A34" s="5">
-        <v>21000</v>
-      </c>
-      <c r="B34" s="11" t="s">
+    <row r="34" s="4" customFormat="1" spans="1:5">
+      <c r="A34" s="4">
+        <v>30002</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="5">
-        <v>2005</v>
-      </c>
-      <c r="D34" s="12" t="s">
+      <c r="C34" s="4">
+        <v>3006</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" s="5" customFormat="1" spans="1:5">
-      <c r="A35" s="5">
-        <v>31000</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="5">
-        <v>3001</v>
-      </c>
-      <c r="D35" s="12" t="s">
+      <c r="E34" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="12" t="s">
+    </row>
+    <row r="35" s="4" customFormat="1" spans="1:5">
+      <c r="A35" s="4">
+        <v>30003</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="4">
+        <v>3007</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36" s="5" customFormat="1" spans="1:5">
       <c r="A36" s="5">
-        <v>41000</v>
+        <v>21000</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" s="5">
-        <v>-1</v>
+        <v>2005</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>11</v>
@@ -1967,13 +1970,13 @@
     </row>
     <row r="37" s="5" customFormat="1" spans="1:5">
       <c r="A37" s="5">
-        <v>51000</v>
+        <v>31000</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="5">
-        <v>-1</v>
+        <v>3001</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>11</v>
@@ -1984,10 +1987,10 @@
     </row>
     <row r="38" s="5" customFormat="1" spans="1:5">
       <c r="A38" s="5">
-        <v>61000</v>
+        <v>41000</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" s="5">
         <v>-1</v>
@@ -2001,10 +2004,10 @@
     </row>
     <row r="39" s="5" customFormat="1" spans="1:5">
       <c r="A39" s="5">
-        <v>71000</v>
+        <v>51000</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" s="5">
         <v>-1</v>
@@ -2013,6 +2016,40 @@
         <v>11</v>
       </c>
       <c r="E39" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" s="5" customFormat="1" spans="1:5">
+      <c r="A40" s="5">
+        <v>61000</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" s="5" customFormat="1" spans="1:5">
+      <c r="A41" s="5">
+        <v>71000</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>10</v>
       </c>
     </row>
